--- a/state_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
+++ b/state_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U234"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.35893073878199</v>
+        <v>1.35876949695178</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -651,7 +651,7 @@
         <v>0.00427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0061701544586152</v>
+        <v>0.0061815726139912</v>
       </c>
       <c r="H3" t="n">
         <v>0.027</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00377</v>
+        <v>0.00379</v>
       </c>
       <c r="M3" t="n">
         <v>0.01015</v>
@@ -732,7 +732,7 @@
         <v>0.00427</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0061701544586152</v>
+        <v>0.0061815726139912</v>
       </c>
       <c r="H4" t="n">
         <v>0.027</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00377</v>
+        <v>0.00379</v>
       </c>
       <c r="M4" t="n">
         <v>0.01015</v>
@@ -813,7 +813,7 @@
         <v>138.5</v>
       </c>
       <c r="G5" t="n">
-        <v>544.072577337781</v>
+        <v>544.074593511308</v>
       </c>
       <c r="H5" t="n">
         <v>8664</v>
@@ -898,7 +898,7 @@
         <v>138.5</v>
       </c>
       <c r="G6" t="n">
-        <v>544.072577337781</v>
+        <v>544.074593511308</v>
       </c>
       <c r="H6" t="n">
         <v>8664</v>
@@ -983,7 +983,7 @@
         <v>138.5</v>
       </c>
       <c r="G7" t="n">
-        <v>544.072577337781</v>
+        <v>544.074593511308</v>
       </c>
       <c r="H7" t="n">
         <v>8664</v>
@@ -1068,7 +1068,7 @@
         <v>138.5</v>
       </c>
       <c r="G8" t="n">
-        <v>544.072577337781</v>
+        <v>544.074593511308</v>
       </c>
       <c r="H8" t="n">
         <v>8664</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00319</v>
+        <v>0.00334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007975412663948999</v>
+        <v>0.0080300824796383</v>
       </c>
       <c r="H9" t="n">
         <v>0.0579863809000171</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00407</v>
+        <v>0.00428</v>
       </c>
       <c r="M9" t="n">
         <v>0.01604</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00319</v>
+        <v>0.00334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007975412663948999</v>
+        <v>0.0080300824796383</v>
       </c>
       <c r="H10" t="n">
         <v>0.0579863809000171</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00407</v>
+        <v>0.00428</v>
       </c>
       <c r="M10" t="n">
         <v>0.01604</v>
@@ -1315,7 +1315,7 @@
         <v>0.057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0897991887623826</v>
+        <v>0.0898612073931955</v>
       </c>
       <c r="H11" t="n">
         <v>0.347</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.0033</v>
+        <v>0.00356</v>
       </c>
       <c r="M11" t="n">
         <v>0.19506</v>
@@ -1396,7 +1396,7 @@
         <v>0.057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0897991887623826</v>
+        <v>0.0898612073931955</v>
       </c>
       <c r="H12" t="n">
         <v>0.347</v>
@@ -1407,7 +1407,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.0033</v>
+        <v>0.00356</v>
       </c>
       <c r="M12" t="n">
         <v>0.19506</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.04985</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0923571724101338</v>
+        <v>0.09236677705176601</v>
       </c>
       <c r="H13" t="n">
         <v>0.386</v>
@@ -1484,10 +1484,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.012</v>
+        <v>0.01197</v>
       </c>
       <c r="M13" t="n">
-        <v>0.186</v>
+        <v>0.18615</v>
       </c>
       <c r="N13" t="n">
         <v>0.3025</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.04985</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0923571724101338</v>
+        <v>0.09236677705176601</v>
       </c>
       <c r="H14" t="n">
         <v>0.386</v>
@@ -1561,10 +1561,10 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.012</v>
+        <v>0.01197</v>
       </c>
       <c r="M14" t="n">
-        <v>0.186</v>
+        <v>0.18615</v>
       </c>
       <c r="N14" t="n">
         <v>0.3025</v>
@@ -1781,7 +1781,7 @@
         <v>0.0225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0411322907161498</v>
+        <v>0.0411344939528928</v>
       </c>
       <c r="H17" t="n">
         <v>0.488</v>
@@ -1858,7 +1858,7 @@
         <v>0.0225</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0411322907161498</v>
+        <v>0.0411344939528928</v>
       </c>
       <c r="H18" t="n">
         <v>0.488</v>
@@ -1939,7 +1939,7 @@
         <v>1.1</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2543447022363</v>
+        <v>1.25406927761023</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -2020,7 +2020,7 @@
         <v>0.00439</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0051948611584187</v>
+        <v>0.0052034936116537</v>
       </c>
       <c r="H20" t="n">
         <v>0.027</v>
@@ -2031,7 +2031,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00384</v>
+        <v>0.00385</v>
       </c>
       <c r="M20" t="n">
         <v>0.0063</v>
@@ -2101,7 +2101,7 @@
         <v>0.00439</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0051948611584187</v>
+        <v>0.0052034936116537</v>
       </c>
       <c r="H21" t="n">
         <v>0.027</v>
@@ -2112,7 +2112,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.00384</v>
+        <v>0.00385</v>
       </c>
       <c r="M21" t="n">
         <v>0.0063</v>
@@ -2599,7 +2599,7 @@
         <v>0.00682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0127600038820458</v>
+        <v>0.0128023653547671</v>
       </c>
       <c r="H27" t="n">
         <v>0.0639113455765638</v>
@@ -2680,7 +2680,7 @@
         <v>0.00682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0127600038820458</v>
+        <v>0.0128023653547671</v>
       </c>
       <c r="H28" t="n">
         <v>0.0639113455765638</v>
@@ -2761,7 +2761,7 @@
         <v>0.065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0949772908374213</v>
+        <v>0.0949903061361609</v>
       </c>
       <c r="H29" t="n">
         <v>0.51</v>
@@ -2772,7 +2772,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00262</v>
+        <v>0.00267</v>
       </c>
       <c r="M29" t="n">
         <v>0.19506</v>
@@ -2842,7 +2842,7 @@
         <v>0.065</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0949772908374213</v>
+        <v>0.0949903061361609</v>
       </c>
       <c r="H30" t="n">
         <v>0.51</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.00262</v>
+        <v>0.00267</v>
       </c>
       <c r="M30" t="n">
         <v>0.19506</v>
@@ -2919,7 +2919,7 @@
         <v>0.057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0992821959612631</v>
+        <v>0.0992840648111495</v>
       </c>
       <c r="H31" t="n">
         <v>0.547</v>
@@ -2933,7 +2933,7 @@
         <v>0.012</v>
       </c>
       <c r="M31" t="n">
-        <v>0.186</v>
+        <v>0.18615</v>
       </c>
       <c r="N31" t="n">
         <v>0.3067</v>
@@ -2996,7 +2996,7 @@
         <v>0.057</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0992821959612631</v>
+        <v>0.0992840648111495</v>
       </c>
       <c r="H32" t="n">
         <v>0.547</v>
@@ -3010,7 +3010,7 @@
         <v>0.012</v>
       </c>
       <c r="M32" t="n">
-        <v>0.186</v>
+        <v>0.18615</v>
       </c>
       <c r="N32" t="n">
         <v>0.3067</v>
@@ -3227,7 +3227,7 @@
         <v>0.0245</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0487762934219785</v>
+        <v>0.0487808250457599</v>
       </c>
       <c r="H35" t="n">
         <v>0.488</v>
@@ -3304,7 +3304,7 @@
         <v>0.0245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0487762934219785</v>
+        <v>0.0487808250457599</v>
       </c>
       <c r="H36" t="n">
         <v>0.488</v>
@@ -3385,7 +3385,7 @@
         <v>1.175</v>
       </c>
       <c r="G37" t="n">
-        <v>1.37329961180868</v>
+        <v>1.37302948381003</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.00497</v>
+        <v>0.00495</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0061317295085681</v>
+        <v>0.0061346096337064</v>
       </c>
       <c r="H38" t="n">
         <v>0.027</v>
@@ -3544,10 +3544,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.00497</v>
+        <v>0.00495</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0061317295085681</v>
+        <v>0.0061346096337064</v>
       </c>
       <c r="H39" t="n">
         <v>0.027</v>
@@ -4045,7 +4045,7 @@
         <v>0.00699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0132114026391936</v>
+        <v>0.0132409367379229</v>
       </c>
       <c r="H45" t="n">
         <v>0.0639113455765638</v>
@@ -4056,7 +4056,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00531</v>
+        <v>0.00544</v>
       </c>
       <c r="M45" t="n">
         <v>0.02489</v>
@@ -4126,7 +4126,7 @@
         <v>0.00699</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0132114026391936</v>
+        <v>0.0132409367379229</v>
       </c>
       <c r="H46" t="n">
         <v>0.0639113455765638</v>
@@ -4137,7 +4137,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00531</v>
+        <v>0.00544</v>
       </c>
       <c r="M46" t="n">
         <v>0.02489</v>
@@ -4207,7 +4207,7 @@
         <v>0.0235</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0720133784866854</v>
+        <v>0.0720240510316519</v>
       </c>
       <c r="H47" t="n">
         <v>0.51</v>
@@ -4218,7 +4218,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.00167</v>
+        <v>0.00171</v>
       </c>
       <c r="M47" t="n">
         <v>0.137</v>
@@ -4288,7 +4288,7 @@
         <v>0.0235</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0720133784866854</v>
+        <v>0.0720240510316519</v>
       </c>
       <c r="H48" t="n">
         <v>0.51</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.00167</v>
+        <v>0.00171</v>
       </c>
       <c r="M48" t="n">
         <v>0.137</v>
@@ -4365,7 +4365,7 @@
         <v>0.0525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09038722327510269</v>
+        <v>0.0904087598478473</v>
       </c>
       <c r="H49" t="n">
         <v>0.547</v>
@@ -4376,7 +4376,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.01155</v>
+        <v>0.01144</v>
       </c>
       <c r="M49" t="n">
         <v>0.1688</v>
@@ -4442,7 +4442,7 @@
         <v>0.0525</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09038722327510269</v>
+        <v>0.0904087598478473</v>
       </c>
       <c r="H50" t="n">
         <v>0.547</v>
@@ -4453,7 +4453,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.01155</v>
+        <v>0.01144</v>
       </c>
       <c r="M50" t="n">
         <v>0.1688</v>
@@ -4673,7 +4673,7 @@
         <v>0.024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0476929600886452</v>
+        <v>0.0476974917124266</v>
       </c>
       <c r="H53" t="n">
         <v>0.488</v>
@@ -4750,7 +4750,7 @@
         <v>0.024</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0476929600886452</v>
+        <v>0.0476974917124266</v>
       </c>
       <c r="H54" t="n">
         <v>0.488</v>
@@ -4908,7 +4908,7 @@
         <v>1.2</v>
       </c>
       <c r="G56" t="n">
-        <v>1.35325622290663</v>
+        <v>1.35299119166267</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
@@ -4989,7 +4989,7 @@
         <v>0.006</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0072504981160004</v>
+        <v>0.007250260925889</v>
       </c>
       <c r="H57" t="n">
         <v>0.027</v>
@@ -5070,7 +5070,7 @@
         <v>0.006</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0072504981160004</v>
+        <v>0.007250260925889</v>
       </c>
       <c r="H58" t="n">
         <v>0.027</v>
@@ -5568,7 +5568,7 @@
         <v>0.00768</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0142957672236718</v>
+        <v>0.0143209338509639</v>
       </c>
       <c r="H64" t="n">
         <v>0.0639113455765638</v>
@@ -5579,7 +5579,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00686</v>
+        <v>0.00699</v>
       </c>
       <c r="M64" t="n">
         <v>0.02519</v>
@@ -5649,7 +5649,7 @@
         <v>0.00768</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0142957672236718</v>
+        <v>0.0143209338509639</v>
       </c>
       <c r="H65" t="n">
         <v>0.0639113455765638</v>
@@ -5660,7 +5660,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00686</v>
+        <v>0.00699</v>
       </c>
       <c r="M65" t="n">
         <v>0.02519</v>
@@ -5730,7 +5730,7 @@
         <v>0.01205</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0620678154055712</v>
+        <v>0.0620267091930433</v>
       </c>
       <c r="H66" t="n">
         <v>0.51</v>
@@ -5741,7 +5741,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.002</v>
+        <v>0.00121</v>
       </c>
       <c r="M66" t="n">
         <v>0.12</v>
@@ -5811,7 +5811,7 @@
         <v>0.01205</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0620678154055712</v>
+        <v>0.0620267091930433</v>
       </c>
       <c r="H67" t="n">
         <v>0.51</v>
@@ -5822,7 +5822,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.002</v>
+        <v>0.00121</v>
       </c>
       <c r="M67" t="n">
         <v>0.12</v>
@@ -5965,7 +5965,7 @@
         <v>0.037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0771833333333333</v>
+        <v>0.0772166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0.547</v>
@@ -5976,13 +5976,13 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.012</v>
+        <v>0.01235</v>
       </c>
       <c r="M69" t="n">
         <v>0.1496</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2021</v>
+        <v>0.2019</v>
       </c>
       <c r="O69" t="n">
         <v>1838919.773</v>
@@ -6042,7 +6042,7 @@
         <v>0.037</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0771833333333333</v>
+        <v>0.0772166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0.547</v>
@@ -6053,13 +6053,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.012</v>
+        <v>0.01235</v>
       </c>
       <c r="M70" t="n">
         <v>0.1496</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2021</v>
+        <v>0.2019</v>
       </c>
       <c r="O70" t="n">
         <v>1838919.773</v>
@@ -6273,7 +6273,7 @@
         <v>0.018</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0447940027058287</v>
+        <v>0.0447963310928671</v>
       </c>
       <c r="H73" t="n">
         <v>0.488</v>
@@ -6350,7 +6350,7 @@
         <v>0.018</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0447940027058287</v>
+        <v>0.0447963310928671</v>
       </c>
       <c r="H74" t="n">
         <v>0.488</v>
@@ -6508,10 +6508,10 @@
         <v>1.3</v>
       </c>
       <c r="G76" t="n">
-        <v>1.51590646734288</v>
+        <v>1.50716466515903</v>
       </c>
       <c r="H76" t="n">
-        <v>6.80640414830781</v>
+        <v>6.33586433367414</v>
       </c>
       <c r="I76" t="n">
         <v>3.15</v>
@@ -6589,7 +6589,7 @@
         <v>0.008</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0083170765507999</v>
+        <v>0.0083154384456389</v>
       </c>
       <c r="H77" t="n">
         <v>0.027</v>
@@ -6670,7 +6670,7 @@
         <v>0.008</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0083170765507999</v>
+        <v>0.0083154384456389</v>
       </c>
       <c r="H78" t="n">
         <v>0.027</v>
@@ -7168,7 +7168,7 @@
         <v>0.00775</v>
       </c>
       <c r="G84" t="n">
-        <v>0.014342391296325</v>
+        <v>0.0143601135591094</v>
       </c>
       <c r="H84" t="n">
         <v>0.0639113455765638</v>
@@ -7249,7 +7249,7 @@
         <v>0.00775</v>
       </c>
       <c r="G85" t="n">
-        <v>0.014342391296325</v>
+        <v>0.0143601135591094</v>
       </c>
       <c r="H85" t="n">
         <v>0.0639113455765638</v>
@@ -7330,7 +7330,7 @@
         <v>0.00725</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0549203609099152</v>
+        <v>0.0548804699421414</v>
       </c>
       <c r="H86" t="n">
         <v>0.51</v>
@@ -7341,7 +7341,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00155</v>
+        <v>0.001</v>
       </c>
       <c r="M86" t="n">
         <v>0.1165</v>
@@ -7411,7 +7411,7 @@
         <v>0.00725</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0549203609099152</v>
+        <v>0.0548804699421414</v>
       </c>
       <c r="H87" t="n">
         <v>0.51</v>
@@ -7422,7 +7422,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00155</v>
+        <v>0.001</v>
       </c>
       <c r="M87" t="n">
         <v>0.1165</v>
@@ -7565,13 +7565,13 @@
         <v>0.0215</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06901280646790579</v>
+        <v>0.0689899848340874</v>
       </c>
       <c r="H89" t="n">
         <v>0.547</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2615</v>
+        <v>0.2614</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7642,13 +7642,13 @@
         <v>0.0215</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06901280646790579</v>
+        <v>0.0689899848340874</v>
       </c>
       <c r="H90" t="n">
         <v>0.547</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2615</v>
+        <v>0.2614</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -7873,7 +7873,7 @@
         <v>0.018</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0330440027058287</v>
+        <v>0.0330463310928671</v>
       </c>
       <c r="H93" t="n">
         <v>0.206</v>
@@ -7950,7 +7950,7 @@
         <v>0.018</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0330440027058287</v>
+        <v>0.0330463310928671</v>
       </c>
       <c r="H94" t="n">
         <v>0.206</v>
@@ -8108,10 +8108,10 @@
         <v>1.5</v>
       </c>
       <c r="G96" t="n">
-        <v>1.52519731123915</v>
+        <v>1.51638174358058</v>
       </c>
       <c r="H96" t="n">
-        <v>6.80640414830781</v>
+        <v>6.33586433367414</v>
       </c>
       <c r="I96" t="n">
         <v>2.96</v>
@@ -8189,7 +8189,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009234392083035199</v>
+        <v>0.009231538140982799</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
@@ -8270,7 +8270,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>0.009234392083035199</v>
+        <v>0.009231538140982799</v>
       </c>
       <c r="H98" t="n">
         <v>0.03</v>
@@ -8765,10 +8765,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.00293</v>
+        <v>0.00308</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0104086624466922</v>
+        <v>0.0104508914052928</v>
       </c>
       <c r="H104" t="n">
         <v>0.0639113455765638</v>
@@ -8779,7 +8779,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.0027</v>
+        <v>0.00283</v>
       </c>
       <c r="M104" t="n">
         <v>0.02087</v>
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00293</v>
+        <v>0.00308</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0104086624466922</v>
+        <v>0.0104508914052928</v>
       </c>
       <c r="H105" t="n">
         <v>0.0639113455765638</v>
@@ -8860,7 +8860,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.0027</v>
+        <v>0.00283</v>
       </c>
       <c r="M105" t="n">
         <v>0.02087</v>
@@ -8930,7 +8930,7 @@
         <v>0.0061</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0513362488517248</v>
+        <v>0.0513077635724538</v>
       </c>
       <c r="H106" t="n">
         <v>0.51</v>
@@ -8941,7 +8941,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00079</v>
+        <v>0.00092</v>
       </c>
       <c r="M106" t="n">
         <v>0.1001</v>
@@ -9011,7 +9011,7 @@
         <v>0.0061</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0513362488517248</v>
+        <v>0.0513077635724538</v>
       </c>
       <c r="H107" t="n">
         <v>0.51</v>
@@ -9022,7 +9022,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00079</v>
+        <v>0.00092</v>
       </c>
       <c r="M107" t="n">
         <v>0.1001</v>
@@ -9162,16 +9162,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.015</v>
+        <v>0.01505</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0622016125542382</v>
+        <v>0.0621767194359001</v>
       </c>
       <c r="H109" t="n">
         <v>0.547</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2615</v>
+        <v>0.2614</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -9239,16 +9239,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.015</v>
+        <v>0.01505</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0622016125542382</v>
+        <v>0.0621767194359001</v>
       </c>
       <c r="H110" t="n">
         <v>0.547</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2615</v>
+        <v>0.2614</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9473,7 +9473,7 @@
         <v>0.018</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0295106693724954</v>
+        <v>0.0295129977595338</v>
       </c>
       <c r="H113" t="n">
         <v>0.184</v>
@@ -9550,7 +9550,7 @@
         <v>0.018</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0295106693724954</v>
+        <v>0.0295129977595338</v>
       </c>
       <c r="H114" t="n">
         <v>0.184</v>
@@ -9708,10 +9708,10 @@
         <v>1.5</v>
       </c>
       <c r="G116" t="n">
-        <v>1.61422871958242</v>
+        <v>1.61761590392808</v>
       </c>
       <c r="H116" t="n">
-        <v>6.80640414830781</v>
+        <v>7.46662628629816</v>
       </c>
       <c r="I116" t="n">
         <v>3.21</v>
@@ -9789,7 +9789,7 @@
         <v>0.01</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0118194267654427</v>
+        <v>0.0118182163600949</v>
       </c>
       <c r="H117" t="n">
         <v>0.092</v>
@@ -9870,7 +9870,7 @@
         <v>0.01</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0118194267654427</v>
+        <v>0.0118182163600949</v>
       </c>
       <c r="H118" t="n">
         <v>0.092</v>
@@ -10365,10 +10365,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00256</v>
+        <v>0.0027</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0057634394867519</v>
+        <v>0.0058331736774047</v>
       </c>
       <c r="H124" t="n">
         <v>0.0615171022752712</v>
@@ -10379,10 +10379,10 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.0027</v>
+        <v>0.00283</v>
       </c>
       <c r="M124" t="n">
-        <v>0.00734</v>
+        <v>0.00749</v>
       </c>
       <c r="N124" t="n">
         <v>0.01464</v>
@@ -10446,10 +10446,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.00256</v>
+        <v>0.0027</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0057634394867519</v>
+        <v>0.0058331736774047</v>
       </c>
       <c r="H125" t="n">
         <v>0.0615171022752712</v>
@@ -10460,10 +10460,10 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.0027</v>
+        <v>0.00283</v>
       </c>
       <c r="M125" t="n">
-        <v>0.00734</v>
+        <v>0.00749</v>
       </c>
       <c r="N125" t="n">
         <v>0.01464</v>
@@ -10530,7 +10530,7 @@
         <v>0.007</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0523622281343653</v>
+        <v>0.0523378723353612</v>
       </c>
       <c r="H126" t="n">
         <v>0.419</v>
@@ -10541,7 +10541,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00109</v>
+        <v>0.001</v>
       </c>
       <c r="M126" t="n">
         <v>0.10722</v>
@@ -10611,7 +10611,7 @@
         <v>0.007</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0523622281343653</v>
+        <v>0.0523378723353612</v>
       </c>
       <c r="H127" t="n">
         <v>0.419</v>
@@ -10622,7 +10622,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00109</v>
+        <v>0.001</v>
       </c>
       <c r="M127" t="n">
         <v>0.10722</v>
@@ -10762,27 +10762,27 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0603218788734023</v>
+        <v>0.0602921334425275</v>
       </c>
       <c r="H129" t="n">
         <v>0.435</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2745</v>
+        <v>0.27435</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00673</v>
+        <v>0.00669</v>
       </c>
       <c r="M129" t="n">
         <v>0.1159</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2328</v>
+        <v>0.23287</v>
       </c>
       <c r="O129" t="n">
         <v>1838919.773</v>
@@ -10839,27 +10839,27 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0603218788734023</v>
+        <v>0.0602921334425275</v>
       </c>
       <c r="H130" t="n">
         <v>0.435</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2745</v>
+        <v>0.27435</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00673</v>
+        <v>0.00669</v>
       </c>
       <c r="M130" t="n">
         <v>0.1159</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2328</v>
+        <v>0.23287</v>
       </c>
       <c r="O130" t="n">
         <v>1838919.773</v>
@@ -11308,10 +11308,10 @@
         <v>1.2</v>
       </c>
       <c r="G136" t="n">
-        <v>1.44628229101099</v>
+        <v>1.44966947535665</v>
       </c>
       <c r="H136" t="n">
-        <v>6.80640414830781</v>
+        <v>7.46662628629816</v>
       </c>
       <c r="I136" t="n">
         <v>3.18</v>
@@ -11389,7 +11389,7 @@
         <v>0.01</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0124028004789179</v>
+        <v>0.0124019552043092</v>
       </c>
       <c r="H137" t="n">
         <v>0.092</v>
@@ -11470,7 +11470,7 @@
         <v>0.01</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0124028004789179</v>
+        <v>0.0124019552043092</v>
       </c>
       <c r="H138" t="n">
         <v>0.092</v>
@@ -11965,10 +11965,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00356</v>
+        <v>0.00365</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0058903501848045</v>
+        <v>0.0059880929288598</v>
       </c>
       <c r="H144" t="n">
         <v>0.0615171022752712</v>
@@ -11979,13 +11979,13 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00429</v>
+        <v>0.00443</v>
       </c>
       <c r="M144" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.00919</v>
       </c>
       <c r="N144" t="n">
-        <v>0.01082</v>
+        <v>0.01084</v>
       </c>
       <c r="O144" t="n">
         <v>1838919.773</v>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00356</v>
+        <v>0.00365</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0058903501848045</v>
+        <v>0.0059880929288598</v>
       </c>
       <c r="H145" t="n">
         <v>0.0615171022752712</v>
@@ -12060,13 +12060,13 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00429</v>
+        <v>0.00443</v>
       </c>
       <c r="M145" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.00919</v>
       </c>
       <c r="N145" t="n">
-        <v>0.01082</v>
+        <v>0.01084</v>
       </c>
       <c r="O145" t="n">
         <v>1838919.773</v>
@@ -12130,7 +12130,7 @@
         <v>0.01285</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0620869307266269</v>
+        <v>0.0620739780278288</v>
       </c>
       <c r="H146" t="n">
         <v>0.419</v>
@@ -12211,7 +12211,7 @@
         <v>0.01285</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0620869307266269</v>
+        <v>0.0620739780278288</v>
       </c>
       <c r="H147" t="n">
         <v>0.419</v>
@@ -12365,7 +12365,7 @@
         <v>0.022</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07060128149207801</v>
+        <v>0.0705685154220547</v>
       </c>
       <c r="H149" t="n">
         <v>0.435</v>
@@ -12376,13 +12376,13 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00957</v>
+        <v>0.009509999999999999</v>
       </c>
       <c r="M149" t="n">
         <v>0.1365</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2665</v>
+        <v>0.26632</v>
       </c>
       <c r="O149" t="n">
         <v>1838919.773</v>
@@ -12442,7 +12442,7 @@
         <v>0.022</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07060128149207801</v>
+        <v>0.0705685154220547</v>
       </c>
       <c r="H150" t="n">
         <v>0.435</v>
@@ -12453,13 +12453,13 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00957</v>
+        <v>0.009509999999999999</v>
       </c>
       <c r="M150" t="n">
         <v>0.1365</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2665</v>
+        <v>0.26632</v>
       </c>
       <c r="O150" t="n">
         <v>1838919.773</v>
@@ -12908,10 +12908,10 @@
         <v>1.1</v>
       </c>
       <c r="G156" t="n">
-        <v>1.35577975148207</v>
+        <v>1.35894435759864</v>
       </c>
       <c r="H156" t="n">
-        <v>6.80640414830781</v>
+        <v>7.46662628629816</v>
       </c>
       <c r="I156" t="n">
         <v>2.82</v>
@@ -12989,7 +12989,7 @@
         <v>0.011</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0128389746816413</v>
+        <v>0.0128376476042694</v>
       </c>
       <c r="H157" t="n">
         <v>0.092</v>
@@ -13070,7 +13070,7 @@
         <v>0.011</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0128389746816413</v>
+        <v>0.0128376476042694</v>
       </c>
       <c r="H158" t="n">
         <v>0.092</v>
@@ -13565,27 +13565,27 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.0044</v>
+        <v>0.00456</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0064589116266334</v>
+        <v>0.0065967549957937</v>
       </c>
       <c r="H164" t="n">
         <v>0.0288778648748588</v>
       </c>
       <c r="I164" t="n">
-        <v>0.02112</v>
+        <v>0.02139</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00498</v>
+        <v>0.00516</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0098</v>
+        <v>0.009820000000000001</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01533</v>
+        <v>0.01571</v>
       </c>
       <c r="O164" t="n">
         <v>1838919.773</v>
@@ -13646,27 +13646,27 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.0044</v>
+        <v>0.00456</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0064589116266334</v>
+        <v>0.0065967549957937</v>
       </c>
       <c r="H165" t="n">
         <v>0.0288778648748588</v>
       </c>
       <c r="I165" t="n">
-        <v>0.02112</v>
+        <v>0.02139</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00498</v>
+        <v>0.00516</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0098</v>
+        <v>0.009820000000000001</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01533</v>
+        <v>0.01571</v>
       </c>
       <c r="O165" t="n">
         <v>1838919.773</v>
@@ -13730,7 +13730,7 @@
         <v>0.0257</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07414641711316219</v>
+        <v>0.0742079475518329</v>
       </c>
       <c r="H166" t="n">
         <v>0.419</v>
@@ -13741,7 +13741,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00146</v>
+        <v>0.00171</v>
       </c>
       <c r="M166" t="n">
         <v>0.1637</v>
@@ -13811,7 +13811,7 @@
         <v>0.0257</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07414641711316219</v>
+        <v>0.0742079475518329</v>
       </c>
       <c r="H167" t="n">
         <v>0.419</v>
@@ -13822,7 +13822,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00146</v>
+        <v>0.00171</v>
       </c>
       <c r="M167" t="n">
         <v>0.1637</v>
@@ -13965,7 +13965,7 @@
         <v>0.035</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0832193458040011</v>
+        <v>0.08318367944793451</v>
       </c>
       <c r="H169" t="n">
         <v>0.435</v>
@@ -13976,7 +13976,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.011</v>
+        <v>0.01095</v>
       </c>
       <c r="M169" t="n">
         <v>0.174</v>
@@ -14042,7 +14042,7 @@
         <v>0.035</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0832193458040011</v>
+        <v>0.08318367944793451</v>
       </c>
       <c r="H170" t="n">
         <v>0.435</v>
@@ -14053,7 +14053,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.011</v>
+        <v>0.01095</v>
       </c>
       <c r="M170" t="n">
         <v>0.174</v>
@@ -14508,13 +14508,13 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1.18773112299026</v>
+        <v>1.21001633989765</v>
       </c>
       <c r="H176" t="n">
-        <v>6.80640414830781</v>
+        <v>7.46662628629816</v>
       </c>
       <c r="I176" t="n">
-        <v>2.82</v>
+        <v>2.90482</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -14525,7 +14525,7 @@
         <v>1.8</v>
       </c>
       <c r="N176" t="n">
-        <v>2.29574</v>
+        <v>2.644</v>
       </c>
       <c r="O176" t="n">
         <v>1838919.773</v>
@@ -14589,7 +14589,7 @@
         <v>0.01</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0117514996762453</v>
+        <v>0.0117501501060367</v>
       </c>
       <c r="H177" t="n">
         <v>0.092</v>
@@ -14670,7 +14670,7 @@
         <v>0.01</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0117514996762453</v>
+        <v>0.0117501501060367</v>
       </c>
       <c r="H178" t="n">
         <v>0.092</v>
@@ -15165,27 +15165,27 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="G184" t="n">
-        <v>0.008244967741710799</v>
+        <v>0.0083791794514894</v>
       </c>
       <c r="H184" t="n">
         <v>0.09</v>
       </c>
       <c r="I184" t="n">
-        <v>0.02182</v>
+        <v>0.02192</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="M184" t="n">
-        <v>0.01052</v>
+        <v>0.01063</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01785</v>
+        <v>0.01793</v>
       </c>
       <c r="O184" t="n">
         <v>1838919.773</v>
@@ -15246,27 +15246,27 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="G185" t="n">
-        <v>0.008244967741710799</v>
+        <v>0.0083791794514894</v>
       </c>
       <c r="H185" t="n">
         <v>0.09</v>
       </c>
       <c r="I185" t="n">
-        <v>0.02182</v>
+        <v>0.02192</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="M185" t="n">
-        <v>0.01052</v>
+        <v>0.01063</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01785</v>
+        <v>0.01793</v>
       </c>
       <c r="O185" t="n">
         <v>1838919.773</v>
@@ -15330,7 +15330,7 @@
         <v>0.03</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0772594452760992</v>
+        <v>0.0773334088094627</v>
       </c>
       <c r="H186" t="n">
         <v>0.419</v>
@@ -15341,7 +15341,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00197</v>
+        <v>0.00229</v>
       </c>
       <c r="M186" t="n">
         <v>0.17128</v>
@@ -15411,7 +15411,7 @@
         <v>0.03</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0772594452760992</v>
+        <v>0.0773334088094627</v>
       </c>
       <c r="H187" t="n">
         <v>0.419</v>
@@ -15422,7 +15422,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00197</v>
+        <v>0.00229</v>
       </c>
       <c r="M187" t="n">
         <v>0.17128</v>
@@ -15565,7 +15565,7 @@
         <v>0.044</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0869219044095884</v>
+        <v>0.08688341825137</v>
       </c>
       <c r="H189" t="n">
         <v>0.435</v>
@@ -15579,7 +15579,7 @@
         <v>0.011</v>
       </c>
       <c r="M189" t="n">
-        <v>0.18146</v>
+        <v>0.18122</v>
       </c>
       <c r="N189" t="n">
         <v>0.2828</v>
@@ -15642,7 +15642,7 @@
         <v>0.044</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0869219044095884</v>
+        <v>0.08688341825137</v>
       </c>
       <c r="H190" t="n">
         <v>0.435</v>
@@ -15656,7 +15656,7 @@
         <v>0.011</v>
       </c>
       <c r="M190" t="n">
-        <v>0.18146</v>
+        <v>0.18122</v>
       </c>
       <c r="N190" t="n">
         <v>0.2828</v>
@@ -16108,10 +16108,10 @@
         <v>0.95</v>
       </c>
       <c r="G196" t="n">
-        <v>1.20559652023991</v>
+        <v>1.22867763775114</v>
       </c>
       <c r="H196" t="n">
-        <v>6.80640414830781</v>
+        <v>7.46662628629816</v>
       </c>
       <c r="I196" t="n">
         <v>3.7</v>
@@ -16125,7 +16125,7 @@
         <v>1.8196</v>
       </c>
       <c r="N196" t="n">
-        <v>2.902</v>
+        <v>2.90988</v>
       </c>
       <c r="O196" t="n">
         <v>1838919.773</v>
@@ -16189,7 +16189,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0107825500366678</v>
+        <v>0.0107820600677561</v>
       </c>
       <c r="H197" t="n">
         <v>0.092</v>
@@ -16270,7 +16270,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0107825500366678</v>
+        <v>0.0107820600677561</v>
       </c>
       <c r="H198" t="n">
         <v>0.092</v>
@@ -16351,7 +16351,7 @@
         <v>110</v>
       </c>
       <c r="G199" t="n">
-        <v>406.562856824189</v>
+        <v>406.56475996457</v>
       </c>
       <c r="H199" t="n">
         <v>11000</v>
@@ -16436,7 +16436,7 @@
         <v>110</v>
       </c>
       <c r="G200" t="n">
-        <v>406.562856824189</v>
+        <v>406.56475996457</v>
       </c>
       <c r="H200" t="n">
         <v>11000</v>
@@ -16521,7 +16521,7 @@
         <v>110</v>
       </c>
       <c r="G201" t="n">
-        <v>406.562856824189</v>
+        <v>406.56475996457</v>
       </c>
       <c r="H201" t="n">
         <v>11000</v>
@@ -16606,7 +16606,7 @@
         <v>110</v>
       </c>
       <c r="G202" t="n">
-        <v>406.562856824189</v>
+        <v>406.56475996457</v>
       </c>
       <c r="H202" t="n">
         <v>11000</v>
@@ -16765,10 +16765,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="G204" t="n">
-        <v>0.008574569834345701</v>
+        <v>0.008675384528167299</v>
       </c>
       <c r="H204" t="n">
         <v>0.09</v>
@@ -16779,13 +16779,13 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00643</v>
+        <v>0.00664</v>
       </c>
       <c r="M204" t="n">
-        <v>0.01065</v>
+        <v>0.01084</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02123</v>
+        <v>0.02161</v>
       </c>
       <c r="O204" t="n">
         <v>1838919.773</v>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.00521</v>
+        <v>0.00531</v>
       </c>
       <c r="G205" t="n">
-        <v>0.008574569834345701</v>
+        <v>0.008675384528167299</v>
       </c>
       <c r="H205" t="n">
         <v>0.09</v>
@@ -16860,13 +16860,13 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00643</v>
+        <v>0.00664</v>
       </c>
       <c r="M205" t="n">
-        <v>0.01065</v>
+        <v>0.01084</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02123</v>
+        <v>0.02161</v>
       </c>
       <c r="O205" t="n">
         <v>1838919.773</v>
@@ -16930,7 +16930,7 @@
         <v>0.029</v>
       </c>
       <c r="G206" t="n">
-        <v>0.071930140302759</v>
+        <v>0.0720391549564422</v>
       </c>
       <c r="H206" t="n">
         <v>0.419</v>
@@ -16941,7 +16941,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>0.00264</v>
+        <v>0.00306</v>
       </c>
       <c r="M206" t="n">
         <v>0.15735</v>
@@ -17011,7 +17011,7 @@
         <v>0.029</v>
       </c>
       <c r="G207" t="n">
-        <v>0.071930140302759</v>
+        <v>0.0720391549564422</v>
       </c>
       <c r="H207" t="n">
         <v>0.419</v>
@@ -17022,7 +17022,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00264</v>
+        <v>0.00306</v>
       </c>
       <c r="M207" t="n">
         <v>0.15735</v>
@@ -17165,7 +17165,7 @@
         <v>0.04</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0811734623487373</v>
+        <v>0.08114164973173769</v>
       </c>
       <c r="H209" t="n">
         <v>0.435</v>
@@ -17242,7 +17242,7 @@
         <v>0.04</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0811734623487373</v>
+        <v>0.08114164973173769</v>
       </c>
       <c r="H210" t="n">
         <v>0.435</v>
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1.32405557379866</v>
+        <v>1.33576521162529</v>
       </c>
       <c r="H216" t="n">
         <v>4.5</v>
@@ -17722,7 +17722,7 @@
         <v>1.1</v>
       </c>
       <c r="M216" t="n">
-        <v>2.34332</v>
+        <v>2.564</v>
       </c>
       <c r="N216" t="n">
         <v>3.09</v>
@@ -17789,7 +17789,7 @@
         <v>0.01</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0101045839349729</v>
+        <v>0.0101040939660612</v>
       </c>
       <c r="H217" t="n">
         <v>0.024</v>
@@ -17870,7 +17870,7 @@
         <v>0.01</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0101045839349729</v>
+        <v>0.0101040939660612</v>
       </c>
       <c r="H218" t="n">
         <v>0.024</v>
@@ -17951,7 +17951,7 @@
         <v>92</v>
       </c>
       <c r="G219" t="n">
-        <v>212.122178858088</v>
+        <v>212.124081998468</v>
       </c>
       <c r="H219" t="n">
         <v>2900</v>
@@ -18036,7 +18036,7 @@
         <v>92</v>
       </c>
       <c r="G220" t="n">
-        <v>212.122178858088</v>
+        <v>212.124081998468</v>
       </c>
       <c r="H220" t="n">
         <v>2900</v>
@@ -18121,7 +18121,7 @@
         <v>92</v>
       </c>
       <c r="G221" t="n">
-        <v>212.122178858088</v>
+        <v>212.124081998468</v>
       </c>
       <c r="H221" t="n">
         <v>2900</v>
@@ -18206,7 +18206,7 @@
         <v>92</v>
       </c>
       <c r="G222" t="n">
-        <v>212.122178858088</v>
+        <v>212.124081998468</v>
       </c>
       <c r="H222" t="n">
         <v>2900</v>
@@ -18365,10 +18365,10 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0.00584</v>
+        <v>0.00592</v>
       </c>
       <c r="G224" t="n">
-        <v>0.009178245196584899</v>
+        <v>0.009248225859856799</v>
       </c>
       <c r="H224" t="n">
         <v>0.09</v>
@@ -18379,7 +18379,7 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="M224" t="n">
         <v>0.01224</v>
@@ -18446,10 +18446,10 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.00584</v>
+        <v>0.00592</v>
       </c>
       <c r="G225" t="n">
-        <v>0.009178245196584899</v>
+        <v>0.009248225859856799</v>
       </c>
       <c r="H225" t="n">
         <v>0.09</v>
@@ -18460,7 +18460,7 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="M225" t="n">
         <v>0.01224</v>
@@ -18530,7 +18530,7 @@
         <v>0.016</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0631388421929379</v>
+        <v>0.0632926500022801</v>
       </c>
       <c r="H226" t="n">
         <v>0.325</v>
@@ -18541,7 +18541,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>0.00293</v>
+        <v>0.00323</v>
       </c>
       <c r="M226" t="n">
         <v>0.15735</v>
@@ -18611,7 +18611,7 @@
         <v>0.016</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0631388421929379</v>
+        <v>0.0632926500022801</v>
       </c>
       <c r="H227" t="n">
         <v>0.325</v>
@@ -18622,7 +18622,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>0.00293</v>
+        <v>0.00323</v>
       </c>
       <c r="M227" t="n">
         <v>0.15735</v>
@@ -18765,7 +18765,7 @@
         <v>0.025</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0718138694817908</v>
+        <v>0.0717852965046589</v>
       </c>
       <c r="H229" t="n">
         <v>0.34</v>
@@ -18776,7 +18776,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.01212</v>
+        <v>0.01202</v>
       </c>
       <c r="M229" t="n">
         <v>0.16829</v>
@@ -18842,7 +18842,7 @@
         <v>0.025</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0718138694817908</v>
+        <v>0.0717852965046589</v>
       </c>
       <c r="H230" t="n">
         <v>0.34</v>
@@ -18853,7 +18853,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.01212</v>
+        <v>0.01202</v>
       </c>
       <c r="M230" t="n">
         <v>0.16829</v>
@@ -19201,6 +19201,1606 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.43835</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.33311322186735</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.0102438197240968</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.01528</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.0102438197240968</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.01528</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="G239" t="n">
+        <v>181.781393757062</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I239" t="n">
+        <v>537.6</v>
+      </c>
+      <c r="J239" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K239" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L239" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M239" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="N239" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>181.781393757062</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I240" t="n">
+        <v>537.6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K240" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L240" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M240" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="N240" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="G241" t="n">
+        <v>181.781393757062</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I241" t="n">
+        <v>537.6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K241" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L241" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M241" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="N241" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="G242" t="n">
+        <v>181.781393757062</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1462</v>
+      </c>
+      <c r="I242" t="n">
+        <v>537.6</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K242" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="L242" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M242" t="n">
+        <v>301.28</v>
+      </c>
+      <c r="N242" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="G243" t="n">
+        <v>93.84399999999999</v>
+      </c>
+      <c r="H243" t="n">
+        <v>106</v>
+      </c>
+      <c r="I243" t="n">
+        <v>106</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>95.39</v>
+      </c>
+      <c r="M243" t="n">
+        <v>103.123</v>
+      </c>
+      <c r="N243" t="n">
+        <v>106</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.0094545119755061</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.02787</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.01518</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.02234</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0094545119755061</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.02787</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.008030000000000001</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.01518</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.02234</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.06938585805316951</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.2918</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.00366</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.28002</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.06938585805316951</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.2918</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.00366</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.28002</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>4.189</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4.3674</v>
+      </c>
+      <c r="H248" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="I248" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>4.6695</v>
+      </c>
+      <c r="M248" t="n">
+        <v>5.475</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.07799834828392629</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.01202</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.28486</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.07799834828392629</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.01202</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.28486</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.318103448275862</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.318103448275862</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.4564</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.0316034482758621</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.03928</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.04858</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0316034482758621</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.03928</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.04858</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
+++ b/state_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
@@ -6508,10 +6508,10 @@
         <v>1.3</v>
       </c>
       <c r="G76" t="n">
-        <v>1.50716466515903</v>
+        <v>1.51102249831266</v>
       </c>
       <c r="H76" t="n">
-        <v>6.33586433367414</v>
+        <v>6.54804515712345</v>
       </c>
       <c r="I76" t="n">
         <v>3.15</v>
@@ -8108,10 +8108,10 @@
         <v>1.5</v>
       </c>
       <c r="G96" t="n">
-        <v>1.51638174358058</v>
+        <v>1.5203110180889</v>
       </c>
       <c r="H96" t="n">
-        <v>6.33586433367414</v>
+        <v>6.54804515712345</v>
       </c>
       <c r="I96" t="n">
         <v>2.96</v>
@@ -9708,10 +9708,10 @@
         <v>1.5</v>
       </c>
       <c r="G116" t="n">
-        <v>1.61761590392808</v>
+        <v>1.61173946297585</v>
       </c>
       <c r="H116" t="n">
-        <v>7.46662628629816</v>
+        <v>6.92536476952414</v>
       </c>
       <c r="I116" t="n">
         <v>3.21</v>
@@ -11308,10 +11308,10 @@
         <v>1.2</v>
       </c>
       <c r="G136" t="n">
-        <v>1.44966947535665</v>
+        <v>1.44379303440442</v>
       </c>
       <c r="H136" t="n">
-        <v>7.46662628629816</v>
+        <v>6.92536476952414</v>
       </c>
       <c r="I136" t="n">
         <v>3.18</v>
@@ -12908,10 +12908,10 @@
         <v>1.1</v>
       </c>
       <c r="G156" t="n">
-        <v>1.35894435759864</v>
+        <v>1.35327055254132</v>
       </c>
       <c r="H156" t="n">
-        <v>7.46662628629816</v>
+        <v>6.92536476952414</v>
       </c>
       <c r="I156" t="n">
         <v>2.82</v>
@@ -14508,13 +14508,13 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1.21001633989765</v>
+        <v>1.2013844615534</v>
       </c>
       <c r="H176" t="n">
-        <v>7.46662628629816</v>
+        <v>6.92536476952414</v>
       </c>
       <c r="I176" t="n">
-        <v>2.90482</v>
+        <v>2.92919</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -16108,10 +16108,10 @@
         <v>0.95</v>
       </c>
       <c r="G196" t="n">
-        <v>1.22867763775114</v>
+        <v>1.21973747803745</v>
       </c>
       <c r="H196" t="n">
-        <v>7.46662628629816</v>
+        <v>6.92536476952414</v>
       </c>
       <c r="I196" t="n">
         <v>3.7</v>
@@ -16125,7 +16125,7 @@
         <v>1.8196</v>
       </c>
       <c r="N196" t="n">
-        <v>2.90988</v>
+        <v>2.94968</v>
       </c>
       <c r="O196" t="n">
         <v>1838919.773</v>
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1.33576521162529</v>
+        <v>1.33651729630691</v>
       </c>
       <c r="H216" t="n">
         <v>4.5</v>
@@ -19308,7 +19308,7 @@
         <v>1</v>
       </c>
       <c r="G236" t="n">
-        <v>1.33311322186735</v>
+        <v>1.33397731916113</v>
       </c>
       <c r="H236" t="n">
         <v>4.5</v>
